--- a/biology/Zoologie/Blackwater_National_Wildlife_Refuge/Blackwater_National_Wildlife_Refuge.xlsx
+++ b/biology/Zoologie/Blackwater_National_Wildlife_Refuge/Blackwater_National_Wildlife_Refuge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Blackwater National Wildlife Refuge, faisant partie du Chesapeake Marshlands National Wildlife Refuge Complex (en), a été créé en 1933 en tant que sanctuaire de la sauvagine pour les oiseaux migrateurs le long de la route de migration critique appelée Atlantic Flyway (en). Le refuge est situé sur la côte est du Maryland, sur la péninsule de Delmarva à seulement 12 mi (19 km) au sud de Cambridge dans le comté de Dorchester, et se compose de plus de 110 km2 de zone humide, de marécages saumâtres, de champs ouverts et mixtes à feuilles persistantes et forêts de feuillus. Il est l'une des plus de 540 unités du National Wildlife Refuge System, qui est géré par la United States Fish and Wildlife Service.
